--- a/Analisis/Prob.xlsx
+++ b/Analisis/Prob.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>MAX</t>
   </si>
@@ -909,7 +909,820 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Exactitude Parameter</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>apple red</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$34:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$34:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4424.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3899.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3736.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3577.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3361.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3105.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2880.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6F6-458B-AA8A-AEF943B994A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>blue car</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$34:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$34:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3874.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3710.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3577.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3318.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2856.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6F6-458B-AA8A-AEF943B994A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bad good</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$34:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$34:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3989.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3736.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3103.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2899.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6F6-458B-AA8A-AEF943B994A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>confused president</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$34:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$34:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3964.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3727.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3514.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3445.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2799.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6F6-458B-AA8A-AEF943B994A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="725102592"/>
+        <c:axId val="725104672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="725102592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725104672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="725104672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CR"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725102592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1465,6 +2278,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1492,6 +2808,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>632475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1765,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,7 +3791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2461,8 +3807,20 @@
       <c r="E33">
         <v>965</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2478,8 +3836,23 @@
       <c r="E34">
         <v>243.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>4893</v>
+      </c>
+      <c r="J34">
+        <v>4863</v>
+      </c>
+      <c r="K34">
+        <v>5155</v>
+      </c>
+      <c r="L34">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +3868,23 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I35">
+        <v>4780</v>
+      </c>
+      <c r="J35">
+        <v>4590</v>
+      </c>
+      <c r="K35">
+        <v>4815</v>
+      </c>
+      <c r="L35">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2512,13 +3900,43 @@
       <c r="E36">
         <v>3514.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>4424.6000000000004</v>
+      </c>
+      <c r="J36">
+        <v>4385</v>
+      </c>
+      <c r="K36">
+        <v>4532</v>
+      </c>
+      <c r="L36">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I37">
+        <v>4232</v>
+      </c>
+      <c r="J37">
+        <v>4096</v>
+      </c>
+      <c r="K37">
+        <v>4395</v>
+      </c>
+      <c r="L37">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2534,8 +3952,23 @@
       <c r="E38">
         <v>965</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I38">
+        <v>3899.4</v>
+      </c>
+      <c r="J38">
+        <v>3874.2</v>
+      </c>
+      <c r="K38">
+        <v>4036</v>
+      </c>
+      <c r="L38">
+        <v>3964.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2551,8 +3984,23 @@
       <c r="E39">
         <v>197.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I39">
+        <v>3736.6</v>
+      </c>
+      <c r="J39">
+        <v>3710.8</v>
+      </c>
+      <c r="K39">
+        <v>3989.8</v>
+      </c>
+      <c r="L39">
+        <v>3727.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2568,8 +4016,23 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I40">
+        <v>3577.2</v>
+      </c>
+      <c r="J40">
+        <v>3577.2</v>
+      </c>
+      <c r="K40">
+        <v>3736.6</v>
+      </c>
+      <c r="L40">
+        <v>3514.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2585,13 +4048,43 @@
       <c r="E41">
         <v>3445.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I41">
+        <v>3361.6</v>
+      </c>
+      <c r="J41">
+        <v>3318.2</v>
+      </c>
+      <c r="K41">
+        <v>3449</v>
+      </c>
+      <c r="L41">
+        <v>3445.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>3105.6</v>
+      </c>
+      <c r="J42">
+        <v>3027</v>
+      </c>
+      <c r="K42">
+        <v>3103.8</v>
+      </c>
+      <c r="L42">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2607,8 +4100,23 @@
       <c r="E43">
         <v>965</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I43">
+        <v>2880.6</v>
+      </c>
+      <c r="J43">
+        <v>2856.8</v>
+      </c>
+      <c r="K43">
+        <v>2899.2</v>
+      </c>
+      <c r="L43">
+        <v>2799.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2625,7 +4133,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2642,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2659,12 +4167,12 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
